--- a/DM/MBA DMP/LAB 3-  SastoBazar Online Kirana Delivery – Kathmandu & Lalitpur.xlsx
+++ b/DM/MBA DMP/LAB 3-  SastoBazar Online Kirana Delivery – Kathmandu & Lalitpur.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMUHD\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D296048D-37E6-4A40-8E32-CD16734814F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C92118-4C34-4EB5-AB37-E4B22D25C06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="270" windowWidth="17355" windowHeight="9600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DigitalMarketingData" sheetId="1" r:id="rId1"/>
+    <sheet name="LAB 3 DigitalMarketingData" sheetId="1" r:id="rId1"/>
+    <sheet name="LAB 3 Assignments " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Day</t>
   </si>
@@ -66,6 +67,113 @@
   </si>
   <si>
     <t>Cost per Order</t>
+  </si>
+  <si>
+    <t>📘 PART 1 — DATA ENTRY (Already Completed in Your File)
+Your dataset contains:
+Facebook Ad Spend (NPR)
+Website Visits
+Leads
+Orders
+Conversion calculations
+Cost calculations</t>
+  </si>
+  <si>
+    <t>## 📌 PART 2 — REQUIRED EXCEL FORMULAS
+Enter these formulas EXACTLY:
+### 1. Visit → Lead Conversion
+= D2 / C2
+### 2. Lead → Order Conversion
+= E2 / D2
+### 3. Visit → Order Conversion
+= E2 / C2
+### 4. Cost per Visit
+= B2 / C2
+### 5. Cost per Lead
+= B2 / D2
+### 6. Cost per Order
+(Most important metric)
+= B2 / E2
+### 7. Average Orders
+=AVERAGE(E2:E11)
+### 8. Correlation (Relationship Strength)
+Ad Spend vs Orders
+=CORREL(B2:B11, E2:E11)
+Website Visits vs Orders
+=CORREL(C2:C11, E2:E11)
+Leads vs Orders
+=CORREL(D2:D11, E2:E11)</t>
+  </si>
+  <si>
+    <t>## 📊 PART 3 — VISUALIZATION TASKS
+### 📌 Chart 1 — Line Chart (Trend Over Time)
+Columns to highlight:
+Day
+Website Visits
+Leads
+Orders
+Insert → Line Chart
+Give title: Daily Marketing Performance Trend
+### 📌 Chart 2 — Column Chart (Daily Orders)
+Highlight:
+Day
+Orders
+Insert → Column Chart
+Title: New Customers Per Day
+### 📌 Chart 3 — Scatter Plot (Ad Spend → Orders)
+Highlight:
+Ad Spend
+Orders
+Insert → Scatter Chart
+Right-click → Add Trendline
+Check both:
+✔ Show Equation
+✔ Display R² Value
+Interpretation Expected:
+Does increasing ad spend increase orders?
+### 📌 Chart 4 — Funnel Chart (Visitors → Leads → Orders)
+Create this table:
+Stage	Count
+Website Visits	=SUM(C2:C11)
+Leads	=SUM(D2:D11)
+Orders	=SUM(E2:E11)
+Highlight → Insert → Funnel
+## 🔍 PART 4 — ANALYSIS QUESTIONS (Students Must Answer)
+Q1. What is the average Visit → Order conversion rate?
+(Use formula results)
+Q2. Which metric has the strongest correlation with Orders?
+(Interpret CORREL results)
+Q3. Is Cost per Order increasing, decreasing, or stable?
+(Observe Column K)
+Q4. Which day had the best marketing performance? Why?</t>
+  </si>
+  <si>
+    <t>## 📘 PART 5 — SWOT ANALYSIS (Based on Your Excel Output)
+Students must fill in:
+🟩 Strengths (Use correlation, low CPO, lead trends)
+Example: Strong positive relation between spend and orders.
+🟨 Weaknesses (Low conversion rate, rising CPO)
+🟦 Opportunities (Growing digital adoption, retargeting potential)
+🟥 Threats (Increasing CPC/competition)</t>
+  </si>
+  <si>
+    <t>## 🔮 PART 6 — FORECASTING IN EXCEL
+### 📌 Task 1 — Forecast Orders for Day 11
+Use:
+=FORECAST.LINEAR(11, E2:E11, A2:A11)
+### 📌 Task 2 — Forecast Orders for Ad Spend NPR 7000
+=FORECAST.LINEAR(7000, E2:E11, B2:B11)
+### 📌 Task 3 — Interpret Trendline Equation
+From Scatter → Trendline
+You will see something like:
+Orders = 0.0048 * AdSpend + 1.5
+Students must answer:
+What does the slope mean?
+If SastoBazar spends 10,000 NPR, how many orders will they get?
+Formula: =0.0048 * 10000 + 1.5</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -130,11 +238,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,4 +1016,55 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD115ADC-DAE9-4715-8D12-CA395B955AA7}">
+  <dimension ref="B3:B89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="124.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" ht="297" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="40" spans="2:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>